--- a/data/pca/factorExposure/factorExposure_2012-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-14.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01577628378256634</v>
+        <v>0.02109548051942155</v>
       </c>
       <c r="C2">
-        <v>-0.02789727561838504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02381047453608355</v>
+      </c>
+      <c r="D2">
+        <v>-0.001522716452762666</v>
+      </c>
+      <c r="E2">
+        <v>-0.02701924116420712</v>
+      </c>
+      <c r="F2">
+        <v>0.00520541360357646</v>
+      </c>
+      <c r="G2">
+        <v>-0.003826981238146299</v>
+      </c>
+      <c r="H2">
+        <v>-0.05822045557792949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06787172062706805</v>
+        <v>0.07732512111653966</v>
       </c>
       <c r="C4">
-        <v>-0.06470044289898974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04115103724416733</v>
+      </c>
+      <c r="D4">
+        <v>0.0699373949109057</v>
+      </c>
+      <c r="E4">
+        <v>-0.0007598492232930682</v>
+      </c>
+      <c r="F4">
+        <v>0.03317582659650691</v>
+      </c>
+      <c r="G4">
+        <v>0.008667039572079682</v>
+      </c>
+      <c r="H4">
+        <v>0.02301059152096979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09627160997549367</v>
+        <v>0.1164347814536357</v>
       </c>
       <c r="C6">
-        <v>-0.07110247953227514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04419668218254851</v>
+      </c>
+      <c r="D6">
+        <v>0.01281271796897751</v>
+      </c>
+      <c r="E6">
+        <v>0.002359067729643425</v>
+      </c>
+      <c r="F6">
+        <v>0.0522028958958654</v>
+      </c>
+      <c r="G6">
+        <v>-0.01044021311043634</v>
+      </c>
+      <c r="H6">
+        <v>-0.0507997582139904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04546457606493184</v>
+        <v>0.05588248595893557</v>
       </c>
       <c r="C7">
-        <v>-0.03421834977059107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0232154807638655</v>
+      </c>
+      <c r="D7">
+        <v>0.03661510069436746</v>
+      </c>
+      <c r="E7">
+        <v>-0.01964449195356237</v>
+      </c>
+      <c r="F7">
+        <v>0.03204803647561349</v>
+      </c>
+      <c r="G7">
+        <v>0.04200670598850684</v>
+      </c>
+      <c r="H7">
+        <v>0.02585258447176256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0315956565220754</v>
+        <v>0.03514478497700071</v>
       </c>
       <c r="C8">
-        <v>-0.03006270288610693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01809120749566968</v>
+      </c>
+      <c r="D8">
+        <v>0.03691452939322712</v>
+      </c>
+      <c r="E8">
+        <v>-0.007441020014455503</v>
+      </c>
+      <c r="F8">
+        <v>0.05313579038269357</v>
+      </c>
+      <c r="G8">
+        <v>-0.02795001692599148</v>
+      </c>
+      <c r="H8">
+        <v>-0.03281857908049197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06224553269904939</v>
+        <v>0.07220215562003002</v>
       </c>
       <c r="C9">
-        <v>-0.04914458934778734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0285062664988296</v>
+      </c>
+      <c r="D9">
+        <v>0.06848167808095794</v>
+      </c>
+      <c r="E9">
+        <v>-0.01584248509254494</v>
+      </c>
+      <c r="F9">
+        <v>0.04047544606499931</v>
+      </c>
+      <c r="G9">
+        <v>0.001623917249000671</v>
+      </c>
+      <c r="H9">
+        <v>0.04490652827295338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02631907568602267</v>
+        <v>0.03957611163067085</v>
       </c>
       <c r="C10">
-        <v>-0.03762003806981266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0408663805673096</v>
+      </c>
+      <c r="D10">
+        <v>-0.1820856564279887</v>
+      </c>
+      <c r="E10">
+        <v>-0.04695874661319429</v>
+      </c>
+      <c r="F10">
+        <v>0.03200071542943561</v>
+      </c>
+      <c r="G10">
+        <v>0.04137396354444842</v>
+      </c>
+      <c r="H10">
+        <v>-0.02524146695450053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06669206902181277</v>
+        <v>0.07491285382310754</v>
       </c>
       <c r="C11">
-        <v>-0.05355667999017019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02921774521379313</v>
+      </c>
+      <c r="D11">
+        <v>0.0674333126330713</v>
+      </c>
+      <c r="E11">
+        <v>0.01052728621467904</v>
+      </c>
+      <c r="F11">
+        <v>0.03487143413013787</v>
+      </c>
+      <c r="G11">
+        <v>0.01678423966644796</v>
+      </c>
+      <c r="H11">
+        <v>0.08505243765075113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05141960851563984</v>
+        <v>0.06153626538048543</v>
       </c>
       <c r="C12">
-        <v>-0.05334990886410595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03469176008025208</v>
+      </c>
+      <c r="D12">
+        <v>0.05090768512657216</v>
+      </c>
+      <c r="E12">
+        <v>-0.009209594968325583</v>
+      </c>
+      <c r="F12">
+        <v>0.02865163350590865</v>
+      </c>
+      <c r="G12">
+        <v>0.01844154395207818</v>
+      </c>
+      <c r="H12">
+        <v>0.04742366637428519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0575783212576093</v>
+        <v>0.0635685366792263</v>
       </c>
       <c r="C13">
-        <v>-0.05407225457174926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03066158207751347</v>
+      </c>
+      <c r="D13">
+        <v>0.04931858013192902</v>
+      </c>
+      <c r="E13">
+        <v>-0.004692311450657914</v>
+      </c>
+      <c r="F13">
+        <v>0.01905479639836967</v>
+      </c>
+      <c r="G13">
+        <v>0.0001816517783769393</v>
+      </c>
+      <c r="H13">
+        <v>0.05806343914010448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03156479577527969</v>
+        <v>0.0378592231589492</v>
       </c>
       <c r="C14">
-        <v>-0.02830903281607081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01945698309984716</v>
+      </c>
+      <c r="D14">
+        <v>0.009088776522399315</v>
+      </c>
+      <c r="E14">
+        <v>-0.01279847591778395</v>
+      </c>
+      <c r="F14">
+        <v>0.01279339929141492</v>
+      </c>
+      <c r="G14">
+        <v>-0.004173260308759425</v>
+      </c>
+      <c r="H14">
+        <v>0.05941774965772156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03933891092575176</v>
+        <v>0.04095402225196149</v>
       </c>
       <c r="C15">
-        <v>-0.01382016521976774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002012781140576275</v>
+      </c>
+      <c r="D15">
+        <v>0.01605053135151819</v>
+      </c>
+      <c r="E15">
+        <v>-0.0379187043305241</v>
+      </c>
+      <c r="F15">
+        <v>-0.000150752254309468</v>
+      </c>
+      <c r="G15">
+        <v>-0.02193357724782289</v>
+      </c>
+      <c r="H15">
+        <v>0.05536772177000395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05613449729724776</v>
+        <v>0.06270611632387234</v>
       </c>
       <c r="C16">
-        <v>-0.04760072279905118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02733429088983252</v>
+      </c>
+      <c r="D16">
+        <v>0.06006024858675262</v>
+      </c>
+      <c r="E16">
+        <v>-0.0004767289770325577</v>
+      </c>
+      <c r="F16">
+        <v>0.03073265542395301</v>
+      </c>
+      <c r="G16">
+        <v>0.006324734553647246</v>
+      </c>
+      <c r="H16">
+        <v>0.05289051977225462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06111735565250834</v>
+        <v>0.06219916003923855</v>
       </c>
       <c r="C20">
-        <v>-0.03960160414454862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0165599224794845</v>
+      </c>
+      <c r="D20">
+        <v>0.04929823156437186</v>
+      </c>
+      <c r="E20">
+        <v>-0.0153901986837481</v>
+      </c>
+      <c r="F20">
+        <v>0.02755404526603575</v>
+      </c>
+      <c r="G20">
+        <v>0.01746450860143458</v>
+      </c>
+      <c r="H20">
+        <v>0.04595197903721143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02601965539843977</v>
+        <v>0.02355131655510126</v>
       </c>
       <c r="C21">
-        <v>-0.001445649418871082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009705998673472292</v>
+      </c>
+      <c r="D21">
+        <v>0.02951254475570414</v>
+      </c>
+      <c r="E21">
+        <v>-0.08584463082310842</v>
+      </c>
+      <c r="F21">
+        <v>-0.002820742153436645</v>
+      </c>
+      <c r="G21">
+        <v>-0.01607976547545484</v>
+      </c>
+      <c r="H21">
+        <v>-0.01793578013636895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0664929727387062</v>
+        <v>0.06321998341295312</v>
       </c>
       <c r="C22">
-        <v>-0.07578324633355769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04372965060842487</v>
+      </c>
+      <c r="D22">
+        <v>0.1054315346742095</v>
+      </c>
+      <c r="E22">
+        <v>-0.6087483664950588</v>
+      </c>
+      <c r="F22">
+        <v>-0.1466308151209332</v>
+      </c>
+      <c r="G22">
+        <v>0.04091757905714533</v>
+      </c>
+      <c r="H22">
+        <v>-0.1373304492242914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06729467643608476</v>
+        <v>0.06392399856809752</v>
       </c>
       <c r="C23">
-        <v>-0.07530362848037862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04312744951866478</v>
+      </c>
+      <c r="D23">
+        <v>0.1063399510446117</v>
+      </c>
+      <c r="E23">
+        <v>-0.6078467118608796</v>
+      </c>
+      <c r="F23">
+        <v>-0.1462037829047827</v>
+      </c>
+      <c r="G23">
+        <v>0.03883284213557261</v>
+      </c>
+      <c r="H23">
+        <v>-0.1332404807512668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06397785055603661</v>
+        <v>0.07465595902687625</v>
       </c>
       <c r="C24">
-        <v>-0.05533805498827644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03248389149027684</v>
+      </c>
+      <c r="D24">
+        <v>0.06489796009572642</v>
+      </c>
+      <c r="E24">
+        <v>-0.007813608911422579</v>
+      </c>
+      <c r="F24">
+        <v>0.04275779672377254</v>
+      </c>
+      <c r="G24">
+        <v>0.006567039393429982</v>
+      </c>
+      <c r="H24">
+        <v>0.05762951178015988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06355490628937753</v>
+        <v>0.07288225344801247</v>
       </c>
       <c r="C25">
-        <v>-0.05996358632576005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03697886521332461</v>
+      </c>
+      <c r="D25">
+        <v>0.06320440375556433</v>
+      </c>
+      <c r="E25">
+        <v>-0.01058053861184883</v>
+      </c>
+      <c r="F25">
+        <v>0.03940872981143957</v>
+      </c>
+      <c r="G25">
+        <v>-0.003509524708206631</v>
+      </c>
+      <c r="H25">
+        <v>0.06295913613164163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03694374868395726</v>
+        <v>0.04020041697804488</v>
       </c>
       <c r="C26">
-        <v>-0.01563884793111394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.00540797299486326</v>
+      </c>
+      <c r="D26">
+        <v>0.02222982174248088</v>
+      </c>
+      <c r="E26">
+        <v>-0.03492333493777085</v>
+      </c>
+      <c r="F26">
+        <v>0.01930338613761704</v>
+      </c>
+      <c r="G26">
+        <v>0.01602519928046322</v>
+      </c>
+      <c r="H26">
+        <v>0.05739018824155843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04764326109978389</v>
+        <v>0.07407601296663525</v>
       </c>
       <c r="C28">
-        <v>-0.07259736232638805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.077621525552394</v>
+      </c>
+      <c r="D28">
+        <v>-0.3232717693991883</v>
+      </c>
+      <c r="E28">
+        <v>-0.04080766238013128</v>
+      </c>
+      <c r="F28">
+        <v>0.04466808538196675</v>
+      </c>
+      <c r="G28">
+        <v>-0.0249836961705508</v>
+      </c>
+      <c r="H28">
+        <v>0.0002305269939028989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0346567418830089</v>
+        <v>0.04341949708931291</v>
       </c>
       <c r="C29">
-        <v>-0.03158709581331352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02371952296527516</v>
+      </c>
+      <c r="D29">
+        <v>0.01021739912848798</v>
+      </c>
+      <c r="E29">
+        <v>-0.0372860683902622</v>
+      </c>
+      <c r="F29">
+        <v>0.01013921641329879</v>
+      </c>
+      <c r="G29">
+        <v>0.01577329875691046</v>
+      </c>
+      <c r="H29">
+        <v>0.08347257245233833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1143138003617446</v>
+        <v>0.1318829540821345</v>
       </c>
       <c r="C30">
-        <v>-0.1048213424819957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06499425761224854</v>
+      </c>
+      <c r="D30">
+        <v>0.09546225160806431</v>
+      </c>
+      <c r="E30">
+        <v>-0.04412399540606113</v>
+      </c>
+      <c r="F30">
+        <v>0.02872332449762115</v>
+      </c>
+      <c r="G30">
+        <v>-0.012955098186258</v>
+      </c>
+      <c r="H30">
+        <v>-0.03337068493599175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03762891476427697</v>
+        <v>0.04332495170903411</v>
       </c>
       <c r="C31">
-        <v>-0.02442697379402026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01322118233465065</v>
+      </c>
+      <c r="D31">
+        <v>0.02862037351021977</v>
+      </c>
+      <c r="E31">
+        <v>-0.01999518522694456</v>
+      </c>
+      <c r="F31">
+        <v>0.01067587939861115</v>
+      </c>
+      <c r="G31">
+        <v>0.02276080010983831</v>
+      </c>
+      <c r="H31">
+        <v>0.06707748794498837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03323942327697301</v>
+        <v>0.03328107603457658</v>
       </c>
       <c r="C32">
-        <v>-0.02305204107234579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01211957758263425</v>
+      </c>
+      <c r="D32">
+        <v>0.01454080358085679</v>
+      </c>
+      <c r="E32">
+        <v>-0.06417898480245482</v>
+      </c>
+      <c r="F32">
+        <v>-0.002788162913855073</v>
+      </c>
+      <c r="G32">
+        <v>-0.03162049243989708</v>
+      </c>
+      <c r="H32">
+        <v>0.02840266075418664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07360257678100769</v>
+        <v>0.08843223331510067</v>
       </c>
       <c r="C33">
-        <v>-0.05600179543218574</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03362409043080542</v>
+      </c>
+      <c r="D33">
+        <v>0.0621790079460027</v>
+      </c>
+      <c r="E33">
+        <v>-0.01224004304758425</v>
+      </c>
+      <c r="F33">
+        <v>0.009501047350851702</v>
+      </c>
+      <c r="G33">
+        <v>0.01226793474180658</v>
+      </c>
+      <c r="H33">
+        <v>0.05746542507447463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0504206897254327</v>
+        <v>0.05760569849506204</v>
       </c>
       <c r="C34">
-        <v>-0.03554318024638887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01753152087154703</v>
+      </c>
+      <c r="D34">
+        <v>0.06063166708162537</v>
+      </c>
+      <c r="E34">
+        <v>-0.001313882555683177</v>
+      </c>
+      <c r="F34">
+        <v>0.02519927624485409</v>
+      </c>
+      <c r="G34">
+        <v>0.0008770729164635282</v>
+      </c>
+      <c r="H34">
+        <v>0.03899174293684759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03621035038644837</v>
+        <v>0.04032965548465874</v>
       </c>
       <c r="C35">
-        <v>-0.01282827405166378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003850121726944104</v>
+      </c>
+      <c r="D35">
+        <v>0.01234600433786653</v>
+      </c>
+      <c r="E35">
+        <v>-0.02210515989120969</v>
+      </c>
+      <c r="F35">
+        <v>-0.002197990519253446</v>
+      </c>
+      <c r="G35">
+        <v>0.01184579030990358</v>
+      </c>
+      <c r="H35">
+        <v>0.04186877993462448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01794145698339998</v>
+        <v>0.02382311414078968</v>
       </c>
       <c r="C36">
-        <v>-0.01741867685075111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01146193942414495</v>
+      </c>
+      <c r="D36">
+        <v>0.01988322761191576</v>
+      </c>
+      <c r="E36">
+        <v>-0.03527996321520019</v>
+      </c>
+      <c r="F36">
+        <v>0.01868473901530307</v>
+      </c>
+      <c r="G36">
+        <v>0.0132325731480956</v>
+      </c>
+      <c r="H36">
+        <v>0.05513564790402983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0381593367751084</v>
+        <v>0.04085023278687337</v>
       </c>
       <c r="C38">
-        <v>-0.01065481553708958</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001409079356680712</v>
+      </c>
+      <c r="D38">
+        <v>0.01333611572088301</v>
+      </c>
+      <c r="E38">
+        <v>-0.05899277503338313</v>
+      </c>
+      <c r="F38">
+        <v>-0.02214917351705547</v>
+      </c>
+      <c r="G38">
+        <v>-0.01777969420638376</v>
+      </c>
+      <c r="H38">
+        <v>0.0241538678431441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08580789653832985</v>
+        <v>0.1009837889003485</v>
       </c>
       <c r="C39">
-        <v>-0.08851790717513842</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05655971503824883</v>
+      </c>
+      <c r="D39">
+        <v>0.0854478582172557</v>
+      </c>
+      <c r="E39">
+        <v>0.01148117665502884</v>
+      </c>
+      <c r="F39">
+        <v>0.02222204278201375</v>
+      </c>
+      <c r="G39">
+        <v>-0.02383772349917864</v>
+      </c>
+      <c r="H39">
+        <v>0.0493399307481405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06350483208997618</v>
+        <v>0.07203950188230707</v>
       </c>
       <c r="C40">
-        <v>-0.05730408256710512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0353796036960081</v>
+      </c>
+      <c r="D40">
+        <v>0.01246080822404774</v>
+      </c>
+      <c r="E40">
+        <v>-0.02750469437470763</v>
+      </c>
+      <c r="F40">
+        <v>-0.04426609451020034</v>
+      </c>
+      <c r="G40">
+        <v>-0.05785699104464851</v>
+      </c>
+      <c r="H40">
+        <v>-0.08534717521472779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03935050801705095</v>
+        <v>0.04355037673643321</v>
       </c>
       <c r="C41">
-        <v>-0.01732908656781502</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006359173818844503</v>
+      </c>
+      <c r="D41">
+        <v>0.04097590939040188</v>
+      </c>
+      <c r="E41">
+        <v>-0.005988264703052365</v>
+      </c>
+      <c r="F41">
+        <v>-0.006091275909211399</v>
+      </c>
+      <c r="G41">
+        <v>-0.01219852404193015</v>
+      </c>
+      <c r="H41">
+        <v>0.0388660186831409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04306265974165638</v>
+        <v>0.05188232809597521</v>
       </c>
       <c r="C43">
-        <v>-0.03640670295099419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.0211120370006582</v>
+      </c>
+      <c r="D43">
+        <v>0.02938281313709548</v>
+      </c>
+      <c r="E43">
+        <v>-0.01656939463921731</v>
+      </c>
+      <c r="F43">
+        <v>0.01481240512383609</v>
+      </c>
+      <c r="G43">
+        <v>0.009500305716897813</v>
+      </c>
+      <c r="H43">
+        <v>0.04746750274263653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08911589638219079</v>
+        <v>0.09286981661215249</v>
       </c>
       <c r="C44">
-        <v>-0.09864110808768758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06185705689975356</v>
+      </c>
+      <c r="D44">
+        <v>0.05592879802195021</v>
+      </c>
+      <c r="E44">
+        <v>-0.1040901474826462</v>
+      </c>
+      <c r="F44">
+        <v>0.07110359560420976</v>
+      </c>
+      <c r="G44">
+        <v>-0.01683058628658439</v>
+      </c>
+      <c r="H44">
+        <v>-0.02925854379101346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02618966392813491</v>
+        <v>0.02774726645965257</v>
       </c>
       <c r="C46">
-        <v>-0.01797360962089128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.00874381348187866</v>
+      </c>
+      <c r="D46">
+        <v>0.03409669536509669</v>
+      </c>
+      <c r="E46">
+        <v>-0.01662968785408744</v>
+      </c>
+      <c r="F46">
+        <v>0.01743861674198742</v>
+      </c>
+      <c r="G46">
+        <v>-0.004391851945668194</v>
+      </c>
+      <c r="H46">
+        <v>0.04344779873816758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0269409224428101</v>
+        <v>0.03023025965480254</v>
       </c>
       <c r="C47">
-        <v>-0.02114928831169748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01269553512747868</v>
+      </c>
+      <c r="D47">
+        <v>0.01630318920158712</v>
+      </c>
+      <c r="E47">
+        <v>-0.04895905721389036</v>
+      </c>
+      <c r="F47">
+        <v>0.01307295111042152</v>
+      </c>
+      <c r="G47">
+        <v>0.02711210924309111</v>
+      </c>
+      <c r="H47">
+        <v>0.04518526996593385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02743910419563647</v>
+        <v>0.03146771249710921</v>
       </c>
       <c r="C48">
-        <v>-0.02049876213273342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01124058367824283</v>
+      </c>
+      <c r="D48">
+        <v>0.03207606169815218</v>
+      </c>
+      <c r="E48">
+        <v>-0.04085248911290568</v>
+      </c>
+      <c r="F48">
+        <v>0.01644223516986437</v>
+      </c>
+      <c r="G48">
+        <v>-0.0003909404730711564</v>
+      </c>
+      <c r="H48">
+        <v>0.05160877212216401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1487784039046547</v>
+        <v>0.1755782131699011</v>
       </c>
       <c r="C49">
-        <v>-0.09556322291893331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05276148932283298</v>
+      </c>
+      <c r="D49">
+        <v>0.01291244232269127</v>
+      </c>
+      <c r="E49">
+        <v>0.1347204765036781</v>
+      </c>
+      <c r="F49">
+        <v>0.02295641563012258</v>
+      </c>
+      <c r="G49">
+        <v>0.05908727112385449</v>
+      </c>
+      <c r="H49">
+        <v>-0.2660157267873212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03288196675209305</v>
+        <v>0.04174680283251591</v>
       </c>
       <c r="C50">
-        <v>-0.0281010762013809</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02048423650533792</v>
+      </c>
+      <c r="D50">
+        <v>0.03632471818002754</v>
+      </c>
+      <c r="E50">
+        <v>-0.04455373881903925</v>
+      </c>
+      <c r="F50">
+        <v>0.02487062050488609</v>
+      </c>
+      <c r="G50">
+        <v>0.02388068507357493</v>
+      </c>
+      <c r="H50">
+        <v>0.07193551107187376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02439228454687932</v>
+        <v>0.02683006613954858</v>
       </c>
       <c r="C51">
-        <v>-0.01591236319336151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008780036218435894</v>
+      </c>
+      <c r="D51">
+        <v>0.02639051950963867</v>
+      </c>
+      <c r="E51">
+        <v>-0.01523381281807417</v>
+      </c>
+      <c r="F51">
+        <v>0.007820799108023066</v>
+      </c>
+      <c r="G51">
+        <v>-0.005198053173024266</v>
+      </c>
+      <c r="H51">
+        <v>-0.001078356098891349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1363940440910171</v>
+        <v>0.1581254733815612</v>
       </c>
       <c r="C53">
-        <v>-0.1029823977890665</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06662337925154586</v>
+      </c>
+      <c r="D53">
+        <v>0.02331134870539657</v>
+      </c>
+      <c r="E53">
+        <v>0.04005461913868215</v>
+      </c>
+      <c r="F53">
+        <v>0.01966232778197233</v>
+      </c>
+      <c r="G53">
+        <v>-0.002721245886994045</v>
+      </c>
+      <c r="H53">
+        <v>0.150231057665602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05133802098124439</v>
+        <v>0.05483128621845838</v>
       </c>
       <c r="C54">
-        <v>-0.02863820404650494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01104313476937387</v>
+      </c>
+      <c r="D54">
+        <v>0.03519898490209166</v>
+      </c>
+      <c r="E54">
+        <v>-0.04330603799333303</v>
+      </c>
+      <c r="F54">
+        <v>0.01470121104772604</v>
+      </c>
+      <c r="G54">
+        <v>-0.004290874627744897</v>
+      </c>
+      <c r="H54">
+        <v>0.06679218917226606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09031914728882308</v>
+        <v>0.09894510860586364</v>
       </c>
       <c r="C55">
-        <v>-0.06831184601108715</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04254820707963329</v>
+      </c>
+      <c r="D55">
+        <v>0.03280521035096889</v>
+      </c>
+      <c r="E55">
+        <v>-0.007374258849665543</v>
+      </c>
+      <c r="F55">
+        <v>0.01904474225221305</v>
+      </c>
+      <c r="G55">
+        <v>-0.007077122541662577</v>
+      </c>
+      <c r="H55">
+        <v>0.1396192249393612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1337671628944485</v>
+        <v>0.157431434103458</v>
       </c>
       <c r="C56">
-        <v>-0.1131531711500854</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07598480807959583</v>
+      </c>
+      <c r="D56">
+        <v>0.02075846972203536</v>
+      </c>
+      <c r="E56">
+        <v>0.03882015512855729</v>
+      </c>
+      <c r="F56">
+        <v>0.05063299354781494</v>
+      </c>
+      <c r="G56">
+        <v>0.01535079532395542</v>
+      </c>
+      <c r="H56">
+        <v>0.1488848741206771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1131109777424202</v>
+        <v>0.1028599203905073</v>
       </c>
       <c r="C58">
-        <v>-0.03346377772646323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.006828959635060229</v>
+      </c>
+      <c r="D58">
+        <v>0.0552317344477194</v>
+      </c>
+      <c r="E58">
+        <v>-0.1857910373363114</v>
+      </c>
+      <c r="F58">
+        <v>0.0380372511780905</v>
+      </c>
+      <c r="G58">
+        <v>0.05208913085947545</v>
+      </c>
+      <c r="H58">
+        <v>-0.1130681602306278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1017185199901166</v>
+        <v>0.1465500691166016</v>
       </c>
       <c r="C59">
-        <v>-0.08777085049735157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08934596078824669</v>
+      </c>
+      <c r="D59">
+        <v>-0.3513928870635445</v>
+      </c>
+      <c r="E59">
+        <v>-0.0468766472227102</v>
+      </c>
+      <c r="F59">
+        <v>-0.02594850622169767</v>
+      </c>
+      <c r="G59">
+        <v>0.02907405777996015</v>
+      </c>
+      <c r="H59">
+        <v>0.01541704941060438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1809455145526713</v>
+        <v>0.2171365640302891</v>
       </c>
       <c r="C60">
-        <v>-0.1236176621344077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07983130587351341</v>
+      </c>
+      <c r="D60">
+        <v>0.01654379894876119</v>
+      </c>
+      <c r="E60">
+        <v>0.07123098378547868</v>
+      </c>
+      <c r="F60">
+        <v>0.04065588793186135</v>
+      </c>
+      <c r="G60">
+        <v>-0.02340883818177505</v>
+      </c>
+      <c r="H60">
+        <v>-0.1785812646703172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07425099781815714</v>
+        <v>0.08595533684228707</v>
       </c>
       <c r="C61">
-        <v>-0.06449063161526387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03994444403739599</v>
+      </c>
+      <c r="D61">
+        <v>0.06523024927136936</v>
+      </c>
+      <c r="E61">
+        <v>0.01891822319027362</v>
+      </c>
+      <c r="F61">
+        <v>0.0106911308834659</v>
+      </c>
+      <c r="G61">
+        <v>0.01538018182282578</v>
+      </c>
+      <c r="H61">
+        <v>0.06888983084407189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1143471395736733</v>
+        <v>0.1385020347960672</v>
       </c>
       <c r="C62">
-        <v>-0.0875535757979032</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.0582478238005022</v>
+      </c>
+      <c r="D62">
+        <v>0.02510171578094024</v>
+      </c>
+      <c r="E62">
+        <v>0.05383101022439363</v>
+      </c>
+      <c r="F62">
+        <v>0.02177318448657073</v>
+      </c>
+      <c r="G62">
+        <v>-0.02840704044073431</v>
+      </c>
+      <c r="H62">
+        <v>0.1437137608231406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04935376239343398</v>
+        <v>0.05195255421654225</v>
       </c>
       <c r="C63">
-        <v>-0.03230815401501365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01673180734701983</v>
+      </c>
+      <c r="D63">
+        <v>0.03251314778417326</v>
+      </c>
+      <c r="E63">
+        <v>-0.04788197213024369</v>
+      </c>
+      <c r="F63">
+        <v>0.01072731514036518</v>
+      </c>
+      <c r="G63">
+        <v>-0.02628472799854716</v>
+      </c>
+      <c r="H63">
+        <v>0.0799032253775861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1060034746981044</v>
+        <v>0.1123269361971281</v>
       </c>
       <c r="C64">
-        <v>-0.04912533537073024</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01671562051841774</v>
+      </c>
+      <c r="D64">
+        <v>0.04541291627057599</v>
+      </c>
+      <c r="E64">
+        <v>-0.02965170455249969</v>
+      </c>
+      <c r="F64">
+        <v>0.05801721209889639</v>
+      </c>
+      <c r="G64">
+        <v>-0.02157335237239261</v>
+      </c>
+      <c r="H64">
+        <v>0.07951192533663862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1076367887293779</v>
+        <v>0.124019471427748</v>
       </c>
       <c r="C65">
-        <v>-0.06980730167303842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04154918221647187</v>
+      </c>
+      <c r="D65">
+        <v>0.009891828429414015</v>
+      </c>
+      <c r="E65">
+        <v>-0.004008651852302594</v>
+      </c>
+      <c r="F65">
+        <v>0.06218390472442904</v>
+      </c>
+      <c r="G65">
+        <v>-0.02632721487635006</v>
+      </c>
+      <c r="H65">
+        <v>-0.0639992428760254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1320568522588137</v>
+        <v>0.1519727762407465</v>
       </c>
       <c r="C66">
-        <v>-0.09850635804311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05547728168214182</v>
+      </c>
+      <c r="D66">
+        <v>0.11891507549773</v>
+      </c>
+      <c r="E66">
+        <v>0.05562164712271546</v>
+      </c>
+      <c r="F66">
+        <v>0.04818845457575744</v>
+      </c>
+      <c r="G66">
+        <v>-0.02460327102006143</v>
+      </c>
+      <c r="H66">
+        <v>0.1132344462305333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06947335210551139</v>
+        <v>0.07545367964857072</v>
       </c>
       <c r="C67">
-        <v>-0.02435718814917446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007124536157171298</v>
+      </c>
+      <c r="D67">
+        <v>0.02541488663707434</v>
+      </c>
+      <c r="E67">
+        <v>-0.02494257599950377</v>
+      </c>
+      <c r="F67">
+        <v>-0.0009194760915995928</v>
+      </c>
+      <c r="G67">
+        <v>0.00274760283225313</v>
+      </c>
+      <c r="H67">
+        <v>0.01678458766045249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04993240782160444</v>
+        <v>0.06711180106059544</v>
       </c>
       <c r="C68">
-        <v>-0.0485688212818357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05149844421178423</v>
+      </c>
+      <c r="D68">
+        <v>-0.2663444693536104</v>
+      </c>
+      <c r="E68">
+        <v>-0.04985864213340269</v>
+      </c>
+      <c r="F68">
+        <v>0.006370493736262332</v>
+      </c>
+      <c r="G68">
+        <v>0.009101659523210934</v>
+      </c>
+      <c r="H68">
+        <v>0.01848767706987267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04923322345674191</v>
+        <v>0.05081953532776916</v>
       </c>
       <c r="C69">
-        <v>-0.02675587889854415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.009853898050770082</v>
+      </c>
+      <c r="D69">
+        <v>0.03429855339128079</v>
+      </c>
+      <c r="E69">
+        <v>-0.02033412774089916</v>
+      </c>
+      <c r="F69">
+        <v>-0.000663432495207427</v>
+      </c>
+      <c r="G69">
+        <v>0.00789046491975943</v>
+      </c>
+      <c r="H69">
+        <v>0.07068328115038772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004860575446138377</v>
+        <v>0.01580031628730651</v>
       </c>
       <c r="C70">
-        <v>0.002611388826820605</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0005546485318259025</v>
+      </c>
+      <c r="D70">
+        <v>-0.00700515348528011</v>
+      </c>
+      <c r="E70">
+        <v>0.022190693636752</v>
+      </c>
+      <c r="F70">
+        <v>0.01462549039038286</v>
+      </c>
+      <c r="G70">
+        <v>0.01681745742075905</v>
+      </c>
+      <c r="H70">
+        <v>-0.05205395697615088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05410875708342196</v>
+        <v>0.07160110266599161</v>
       </c>
       <c r="C71">
-        <v>-0.04700071824880419</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04988047966063512</v>
+      </c>
+      <c r="D71">
+        <v>-0.2995604221697104</v>
+      </c>
+      <c r="E71">
+        <v>-0.0473662788891631</v>
+      </c>
+      <c r="F71">
+        <v>0.02941613036105441</v>
+      </c>
+      <c r="G71">
+        <v>0.005036778577721444</v>
+      </c>
+      <c r="H71">
+        <v>0.013974034158169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1290315534143162</v>
+        <v>0.1545192527833067</v>
       </c>
       <c r="C72">
-        <v>-0.08025084616056746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04804858069418266</v>
+      </c>
+      <c r="D72">
+        <v>0.009357872045125313</v>
+      </c>
+      <c r="E72">
+        <v>0.09206634567779756</v>
+      </c>
+      <c r="F72">
+        <v>-0.1531423445596154</v>
+      </c>
+      <c r="G72">
+        <v>-0.1244935531502575</v>
+      </c>
+      <c r="H72">
+        <v>0.01070927558909106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2413466394220599</v>
+        <v>0.2732647576261434</v>
       </c>
       <c r="C73">
-        <v>-0.1501674682747544</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08065670790836844</v>
+      </c>
+      <c r="D73">
+        <v>0.07189608609532575</v>
+      </c>
+      <c r="E73">
+        <v>0.1922048569936078</v>
+      </c>
+      <c r="F73">
+        <v>0.0707640047297777</v>
+      </c>
+      <c r="G73">
+        <v>0.2093494958821101</v>
+      </c>
+      <c r="H73">
+        <v>-0.5917836359530212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07153394807846888</v>
+        <v>0.08868672183768958</v>
       </c>
       <c r="C74">
-        <v>-0.08558684814951177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06400958730536196</v>
+      </c>
+      <c r="D74">
+        <v>0.03600910546364174</v>
+      </c>
+      <c r="E74">
+        <v>0.006735169997734238</v>
+      </c>
+      <c r="F74">
+        <v>-0.00860187424938375</v>
+      </c>
+      <c r="G74">
+        <v>0.02464075829856413</v>
+      </c>
+      <c r="H74">
+        <v>0.1439869429517533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09292530535441534</v>
+        <v>0.104990572452756</v>
       </c>
       <c r="C75">
-        <v>-0.06826390571442838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03666271217108384</v>
+      </c>
+      <c r="D75">
+        <v>0.01641387635327465</v>
+      </c>
+      <c r="E75">
+        <v>-0.003693644712531384</v>
+      </c>
+      <c r="F75">
+        <v>0.0567450001894764</v>
+      </c>
+      <c r="G75">
+        <v>0.0150940881384441</v>
+      </c>
+      <c r="H75">
+        <v>0.1308943340586505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.114069808641683</v>
+        <v>0.1319220128281691</v>
       </c>
       <c r="C76">
-        <v>-0.102160762021193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06736274626382087</v>
+      </c>
+      <c r="D76">
+        <v>0.05882406721466635</v>
+      </c>
+      <c r="E76">
+        <v>-0.01027937907519848</v>
+      </c>
+      <c r="F76">
+        <v>0.06253453269944749</v>
+      </c>
+      <c r="G76">
+        <v>-0.006750469178976738</v>
+      </c>
+      <c r="H76">
+        <v>0.1551903776623099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.110861653880332</v>
+        <v>0.1155731162273837</v>
       </c>
       <c r="C77">
-        <v>-0.0604445829875668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02426872798173888</v>
+      </c>
+      <c r="D77">
+        <v>0.01552511075989069</v>
+      </c>
+      <c r="E77">
+        <v>-0.01692015557575232</v>
+      </c>
+      <c r="F77">
+        <v>0.2605414625012222</v>
+      </c>
+      <c r="G77">
+        <v>-0.8661692687346016</v>
+      </c>
+      <c r="H77">
+        <v>-0.1901884147119827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08447770177494675</v>
+        <v>0.1061480099048819</v>
       </c>
       <c r="C78">
-        <v>-0.05164759646025237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03047183671659049</v>
+      </c>
+      <c r="D78">
+        <v>0.06950184837856536</v>
+      </c>
+      <c r="E78">
+        <v>-0.06173212287037604</v>
+      </c>
+      <c r="F78">
+        <v>0.005771375040616248</v>
+      </c>
+      <c r="G78">
+        <v>-0.02812465193767231</v>
+      </c>
+      <c r="H78">
+        <v>-0.09382538583272512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1318566848059698</v>
+        <v>0.1500340777122726</v>
       </c>
       <c r="C79">
-        <v>-0.1068824881242301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06437226239561426</v>
+      </c>
+      <c r="D79">
+        <v>0.02873139893176971</v>
+      </c>
+      <c r="E79">
+        <v>0.02529248580750065</v>
+      </c>
+      <c r="F79">
+        <v>0.03294278750929197</v>
+      </c>
+      <c r="G79">
+        <v>0.01327691839799986</v>
+      </c>
+      <c r="H79">
+        <v>0.1367749461125649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03931377841697722</v>
+        <v>0.03832980400532505</v>
       </c>
       <c r="C80">
-        <v>-0.02118790511819757</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007314072171954012</v>
+      </c>
+      <c r="D80">
+        <v>0.02853781822394601</v>
+      </c>
+      <c r="E80">
+        <v>0.004050740393961344</v>
+      </c>
+      <c r="F80">
+        <v>-0.02420800147167157</v>
+      </c>
+      <c r="G80">
+        <v>0.03100440509289582</v>
+      </c>
+      <c r="H80">
+        <v>0.0474959866308758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1062922589262932</v>
+        <v>0.1205297448569448</v>
       </c>
       <c r="C81">
-        <v>-0.0824706868407788</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.0491490258139776</v>
+      </c>
+      <c r="D81">
+        <v>0.03360942339222813</v>
+      </c>
+      <c r="E81">
+        <v>0.005596403039126363</v>
+      </c>
+      <c r="F81">
+        <v>0.02999495338984389</v>
+      </c>
+      <c r="G81">
+        <v>0.05424762208616561</v>
+      </c>
+      <c r="H81">
+        <v>0.1611628287084731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1147502097765869</v>
+        <v>0.1261180631278686</v>
       </c>
       <c r="C82">
-        <v>-0.09447660899214089</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05816719937713771</v>
+      </c>
+      <c r="D82">
+        <v>0.03653383174200025</v>
+      </c>
+      <c r="E82">
+        <v>0.02514282423322172</v>
+      </c>
+      <c r="F82">
+        <v>0.05315815091106774</v>
+      </c>
+      <c r="G82">
+        <v>0.0370670504528005</v>
+      </c>
+      <c r="H82">
+        <v>0.1720944942653696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07224924783494577</v>
+        <v>0.07334658973356627</v>
       </c>
       <c r="C83">
-        <v>-0.02345881949658957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002386934683775941</v>
+      </c>
+      <c r="D83">
+        <v>0.0439090369145367</v>
+      </c>
+      <c r="E83">
+        <v>-0.008729723663237716</v>
+      </c>
+      <c r="F83">
+        <v>0.006940667513192941</v>
+      </c>
+      <c r="G83">
+        <v>0.07511223692399485</v>
+      </c>
+      <c r="H83">
+        <v>0.000289783072180619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02278280436772691</v>
+        <v>0.03184090106955655</v>
       </c>
       <c r="C84">
-        <v>-0.02238688010268526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01817770479631289</v>
+      </c>
+      <c r="D84">
+        <v>0.02339300746820251</v>
+      </c>
+      <c r="E84">
+        <v>-0.01403274247961843</v>
+      </c>
+      <c r="F84">
+        <v>-0.05038117408363806</v>
+      </c>
+      <c r="G84">
+        <v>0.0572083790232387</v>
+      </c>
+      <c r="H84">
+        <v>0.001022523365999624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1126003772591559</v>
+        <v>0.1175972824104425</v>
       </c>
       <c r="C85">
-        <v>-0.08392029444369931</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04380383733103756</v>
+      </c>
+      <c r="D85">
+        <v>0.03361151052528706</v>
+      </c>
+      <c r="E85">
+        <v>-0.008518421953226192</v>
+      </c>
+      <c r="F85">
+        <v>0.0763088112212373</v>
+      </c>
+      <c r="G85">
+        <v>0.01734328888143953</v>
+      </c>
+      <c r="H85">
+        <v>0.1324796561423468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04250942438319556</v>
+        <v>0.04554695899600541</v>
       </c>
       <c r="C86">
-        <v>-0.02126862813214633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.0077630714316656</v>
+      </c>
+      <c r="D86">
+        <v>0.01500993740880787</v>
+      </c>
+      <c r="E86">
+        <v>-0.04836444861627014</v>
+      </c>
+      <c r="F86">
+        <v>0.005217888998255213</v>
+      </c>
+      <c r="G86">
+        <v>0.01695545105112274</v>
+      </c>
+      <c r="H86">
+        <v>-0.005610925595978668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1147489385864276</v>
+        <v>0.1212999166398648</v>
       </c>
       <c r="C87">
-        <v>-0.0892589522482012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0454670733049519</v>
+      </c>
+      <c r="D87">
+        <v>0.07147062580109964</v>
+      </c>
+      <c r="E87">
+        <v>-0.02267364412598329</v>
+      </c>
+      <c r="F87">
+        <v>0.03663564465794861</v>
+      </c>
+      <c r="G87">
+        <v>-0.1075743819779659</v>
+      </c>
+      <c r="H87">
+        <v>-0.01579554469263493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05225383626591558</v>
+        <v>0.05788119827833759</v>
       </c>
       <c r="C88">
-        <v>-0.04238311382573947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02472372582146333</v>
+      </c>
+      <c r="D88">
+        <v>0.02510045753310453</v>
+      </c>
+      <c r="E88">
+        <v>-0.02203396023262276</v>
+      </c>
+      <c r="F88">
+        <v>0.01004952349056323</v>
+      </c>
+      <c r="G88">
+        <v>-0.01586993067237252</v>
+      </c>
+      <c r="H88">
+        <v>0.06612239554871951</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07125156314402374</v>
+        <v>0.1053148270219913</v>
       </c>
       <c r="C89">
-        <v>-0.07424598904132224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07958054433400151</v>
+      </c>
+      <c r="D89">
+        <v>-0.3299597553368758</v>
+      </c>
+      <c r="E89">
+        <v>-0.08041477968114501</v>
+      </c>
+      <c r="F89">
+        <v>0.05846540183069633</v>
+      </c>
+      <c r="G89">
+        <v>0.02290501022576272</v>
+      </c>
+      <c r="H89">
+        <v>0.01177246061287723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06213174897815575</v>
+        <v>0.0854013729836148</v>
       </c>
       <c r="C90">
-        <v>-0.06737217794787623</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06778735216041085</v>
+      </c>
+      <c r="D90">
+        <v>-0.3077686651554152</v>
+      </c>
+      <c r="E90">
+        <v>-0.06548618160521866</v>
+      </c>
+      <c r="F90">
+        <v>-0.02328740977018111</v>
+      </c>
+      <c r="G90">
+        <v>0.01717680119521909</v>
+      </c>
+      <c r="H90">
+        <v>0.03551353837358379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07454272406819247</v>
+        <v>0.08651449850079328</v>
       </c>
       <c r="C91">
-        <v>-0.06787368867284761</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04412296107973805</v>
+      </c>
+      <c r="D91">
+        <v>0.02900628851357513</v>
+      </c>
+      <c r="E91">
+        <v>-0.01062995764462992</v>
+      </c>
+      <c r="F91">
+        <v>0.007590883034630942</v>
+      </c>
+      <c r="G91">
+        <v>0.03109152561579254</v>
+      </c>
+      <c r="H91">
+        <v>0.08404263781467075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07687898691595256</v>
+        <v>0.1028442648309596</v>
       </c>
       <c r="C92">
-        <v>-0.07327768202093785</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.07179882494998623</v>
+      </c>
+      <c r="D92">
+        <v>-0.3317882500985418</v>
+      </c>
+      <c r="E92">
+        <v>-0.04626308297320396</v>
+      </c>
+      <c r="F92">
+        <v>0.02191566769063409</v>
+      </c>
+      <c r="G92">
+        <v>0.007248394417707677</v>
+      </c>
+      <c r="H92">
+        <v>0.04102310805357796</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05747588317842978</v>
+        <v>0.08472644756792383</v>
       </c>
       <c r="C93">
-        <v>-0.06112478442592608</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06701605587405772</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011557384611487</v>
+      </c>
+      <c r="E93">
+        <v>-0.03795584983905155</v>
+      </c>
+      <c r="F93">
+        <v>0.03221496161222748</v>
+      </c>
+      <c r="G93">
+        <v>-0.00333846902663907</v>
+      </c>
+      <c r="H93">
+        <v>-0.01016337800169483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1225787843461058</v>
+        <v>0.1271190558344243</v>
       </c>
       <c r="C94">
-        <v>-0.08381925585582421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03809245409541944</v>
+      </c>
+      <c r="D94">
+        <v>0.05715824581804824</v>
+      </c>
+      <c r="E94">
+        <v>0.02096588677206571</v>
+      </c>
+      <c r="F94">
+        <v>0.03475738395197558</v>
+      </c>
+      <c r="G94">
+        <v>0.03754207158269707</v>
+      </c>
+      <c r="H94">
+        <v>0.09251708405313591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1117691023622125</v>
+        <v>0.1186864191390057</v>
       </c>
       <c r="C95">
-        <v>-0.06088196690848554</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02306490900692069</v>
+      </c>
+      <c r="D95">
+        <v>0.05671591138892782</v>
+      </c>
+      <c r="E95">
+        <v>0.01140981256627195</v>
+      </c>
+      <c r="F95">
+        <v>0.03104413453742632</v>
+      </c>
+      <c r="G95">
+        <v>0.005660264545042841</v>
+      </c>
+      <c r="H95">
+        <v>0.02928942840449788</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1969623500345896</v>
+        <v>0.2225302152445207</v>
       </c>
       <c r="C97">
-        <v>-0.07507536181919573</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.0329922651268683</v>
+      </c>
+      <c r="D97">
+        <v>-0.008279530251406693</v>
+      </c>
+      <c r="E97">
+        <v>0.177855361575137</v>
+      </c>
+      <c r="F97">
+        <v>-0.8812310923347964</v>
+      </c>
+      <c r="G97">
+        <v>-0.2159893023295034</v>
+      </c>
+      <c r="H97">
+        <v>0.02321830446340455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2309352956012346</v>
+        <v>0.2626099515909934</v>
       </c>
       <c r="C98">
-        <v>-0.1296679674427863</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06251208994969291</v>
+      </c>
+      <c r="D98">
+        <v>0.05023869220965282</v>
+      </c>
+      <c r="E98">
+        <v>0.1623084254786592</v>
+      </c>
+      <c r="F98">
+        <v>0.03093215102213348</v>
+      </c>
+      <c r="G98">
+        <v>0.2844363797329531</v>
+      </c>
+      <c r="H98">
+        <v>-0.1875384394908358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5814882119369327</v>
+        <v>0.3567609892654182</v>
       </c>
       <c r="C99">
-        <v>0.8029610533485581</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9214326113309652</v>
+      </c>
+      <c r="D99">
+        <v>-0.08571726851923143</v>
+      </c>
+      <c r="E99">
+        <v>-0.04721292167758407</v>
+      </c>
+      <c r="F99">
+        <v>0.03912386140052359</v>
+      </c>
+      <c r="G99">
+        <v>0.01386578933658334</v>
+      </c>
+      <c r="H99">
+        <v>0.03952244581850307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03488897266746466</v>
+        <v>0.04348971302215571</v>
       </c>
       <c r="C101">
-        <v>-0.03173390890394396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02374337719584964</v>
+      </c>
+      <c r="D101">
+        <v>0.01074107261928938</v>
+      </c>
+      <c r="E101">
+        <v>-0.03650220242183327</v>
+      </c>
+      <c r="F101">
+        <v>0.00973584464134101</v>
+      </c>
+      <c r="G101">
+        <v>0.01598847668733214</v>
+      </c>
+      <c r="H101">
+        <v>0.08169775743349958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
